--- a/Bases de datos/Clasificacion_suelos.xlsx
+++ b/Bases de datos/Clasificacion_suelos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Ensayos_1\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369C0A1-81F2-4139-915E-7CA7E072D0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1250A14B-9CD9-4D94-82C9-F4677BAF1A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="141">
   <si>
     <t>Principal</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Residencial</t>
   </si>
   <si>
-    <t>Industria</t>
-  </si>
-  <si>
     <t>Institucional</t>
   </si>
   <si>
@@ -128,18 +125,12 @@
     <t>Institucional, Comercial</t>
   </si>
   <si>
-    <t>Institucional, Industria</t>
-  </si>
-  <si>
     <t>Comercial, Industrial</t>
   </si>
   <si>
     <t>Comercial</t>
   </si>
   <si>
-    <t>Industria, Residencial, Comercial</t>
-  </si>
-  <si>
     <t>Articulo 16, Articulo 123, Articulo 125, Articulo 77, Articulo 188, Articulo 189, Alta tension</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t>El Mojon</t>
   </si>
   <si>
-    <t>Industria pesada.</t>
-  </si>
-  <si>
     <t>Articulo 77, Articulo 123, Articulo 126</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>Urbano</t>
   </si>
   <si>
-    <t>Industria, Pecuario</t>
-  </si>
-  <si>
     <t>Industrial, Mineria</t>
   </si>
   <si>
@@ -344,21 +329,12 @@
     <t>Multiple</t>
   </si>
   <si>
-    <t>Institucional, Comercial, Industria, Multiple</t>
-  </si>
-  <si>
     <t>Institucional, Multiple</t>
   </si>
   <si>
     <t>Multiple, Institucional</t>
   </si>
   <si>
-    <t>Multiple, Industria</t>
-  </si>
-  <si>
-    <t>Industria, Multiple</t>
-  </si>
-  <si>
     <t>Multiple, Industrial</t>
   </si>
   <si>
@@ -368,9 +344,6 @@
     <t>Faja de 300m adyacente a la Autopista Medellín Bogotá - Actividad Multiple (Corredores viales – Dec.3600 de 2007 y Dec.4066 de 2008).</t>
   </si>
   <si>
-    <t>Industria, Agricola y Pecuario.</t>
-  </si>
-  <si>
     <t>Agricola</t>
   </si>
   <si>
@@ -404,9 +377,6 @@
     <t>Industrial, Pecuario</t>
   </si>
   <si>
-    <t>Industria, Pecuario, minero</t>
-  </si>
-  <si>
     <t>Construcción de Vivienda que implique grandes movimientos de tierra, cultivos sin practicas de conservación de suelos, ganadería sin practicas de manejo</t>
   </si>
   <si>
@@ -471,6 +441,27 @@
   </si>
   <si>
     <t>Institucional, Servicios, Forestal</t>
+  </si>
+  <si>
+    <t>Institucional, Comercial, Industrial, Multiple</t>
+  </si>
+  <si>
+    <t>Industrial, Multiple</t>
+  </si>
+  <si>
+    <t>Industrial, Residencial, Comercial</t>
+  </si>
+  <si>
+    <t>Institucional, Industrial</t>
+  </si>
+  <si>
+    <t>Industrial, Agricola y Pecuario.</t>
+  </si>
+  <si>
+    <t>Industrial pesada.</t>
+  </si>
+  <si>
+    <t>Industrial, Pecuario,  Mineria</t>
   </si>
 </sst>
 </file>
@@ -874,11 +865,11 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
@@ -890,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -905,1514 +896,1574 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G63" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G65" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de datos/Clasificacion_suelos.xlsx
+++ b/Bases de datos/Clasificacion_suelos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Ensayos_1\Mejoras\Bases de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1250A14B-9CD9-4D94-82C9-F4677BAF1A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBC1B6-72EE-4F52-B39C-D6A734F2C8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,21 +86,9 @@
     <t>Articulo 123, Articulo 125</t>
   </si>
   <si>
-    <t>Minería en zonas de recargas de agua, deforestación, ganadería extensiva, apertura de vías</t>
-  </si>
-  <si>
     <t>Pecuario</t>
   </si>
   <si>
-    <t>Minería en zonas de recargas de agua.</t>
-  </si>
-  <si>
-    <t>Minería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minería </t>
-  </si>
-  <si>
     <t>Zarzal curazao</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>SAN JUAN SECTOR IGLESIA</t>
   </si>
   <si>
-    <t>BARRIO MARIA (SECTOR PARTE BAJA DE LOS CORRALES)</t>
-  </si>
-  <si>
     <t>SECTOR TINTEXA-LOS QUINTERO</t>
   </si>
   <si>
@@ -266,45 +251,12 @@
     <t>VILLANUEVA SECTOR IGLESIA</t>
   </si>
   <si>
-    <t>SECTOR CEMENTERIO ( AZULITA )</t>
-  </si>
-  <si>
     <t>GUASIMAL ( AGRICOLA )</t>
   </si>
   <si>
-    <t>EL NORAL ( AGRICOLA )</t>
-  </si>
-  <si>
-    <t>LA VETA ( AGRICOLA )</t>
-  </si>
-  <si>
-    <t>ZARZAL LA LUZ ( AGRICOLA )</t>
-  </si>
-  <si>
-    <t>ZARZAL CURAZAO ( AGRICOLA )</t>
-  </si>
-  <si>
-    <t>GUASIMAL ( SUBURBANO )</t>
-  </si>
-  <si>
-    <t>EL NORAL ( SUBURBANO )</t>
-  </si>
-  <si>
-    <t>ANCON ( SUBURBANO )</t>
-  </si>
-  <si>
-    <t>ZARZAL CURAZAO ( SUBURBANO )</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
-    <t>ALVARADO ( DENSIDAD RESTRINGIDA )</t>
-  </si>
-  <si>
-    <t>ALVARADO ( SUBURBANO )</t>
-  </si>
-  <si>
     <t>Clasificacion</t>
   </si>
   <si>
@@ -314,18 +266,12 @@
     <t>Rural</t>
   </si>
   <si>
-    <t>ANCON ( DENSIDAD RESTRINGIDA )</t>
-  </si>
-  <si>
     <t>Urbano</t>
   </si>
   <si>
     <t>Industrial, Mineria</t>
   </si>
   <si>
-    <t>Minería.</t>
-  </si>
-  <si>
     <t>Multiple</t>
   </si>
   <si>
@@ -353,27 +299,9 @@
     <t>Agricola, Silvopastoril, Recreativo, Institucional</t>
   </si>
   <si>
-    <t>EL CABUYAL ( Pecuario )</t>
-  </si>
-  <si>
-    <t>PEÑOLCITO ( Pecuario )</t>
-  </si>
-  <si>
-    <t>MONTAÑITA ( Pecuario )</t>
-  </si>
-  <si>
-    <t>QUEBRADA ARRIBA ( Pecuario )</t>
-  </si>
-  <si>
-    <t>SABANETA ( Pecuario )</t>
-  </si>
-  <si>
     <t>Industrial, Agricola, Pecuario</t>
   </si>
   <si>
-    <t>ALVARADO ( Pecuario )</t>
-  </si>
-  <si>
     <t>Industrial, Pecuario</t>
   </si>
   <si>
@@ -395,45 +323,6 @@
     <t>Vivienda, Institucional, Servicios, Forestal</t>
   </si>
   <si>
-    <t>, Forestal productor protector</t>
-  </si>
-  <si>
-    <t>, Forestal protector</t>
-  </si>
-  <si>
-    <t>GRANIZAL (, Forestal PRODUCTOR )</t>
-  </si>
-  <si>
-    <t>CABUYAL (, Forestal PRODUCTOR )</t>
-  </si>
-  <si>
-    <t>PEÑOLCITO (, Forestal PRODUCTOR )</t>
-  </si>
-  <si>
-    <t>QUEBRADA ARRIBA (, Forestal PRODUCTOR )</t>
-  </si>
-  <si>
-    <t>MONTAÑITA (, Forestal PRODUCTOR )</t>
-  </si>
-  <si>
-    <t>LA VETA (, Forestal PROTECTOR )</t>
-  </si>
-  <si>
-    <t>EL ZARZAL (, Forestal PROTECTOR )</t>
-  </si>
-  <si>
-    <t>SABANETA (, Forestal PROTECTOR )</t>
-  </si>
-  <si>
-    <t>QUEBRADA ARRIBA (, Forestal PROTECTOR )</t>
-  </si>
-  <si>
-    <t>ANCON I (, Forestal PROTECTOR )</t>
-  </si>
-  <si>
-    <t>EL UMBI (, Forestal PROTECTOR )</t>
-  </si>
-  <si>
     <t>Agricola, Vivienda, Institucional, Servicios, Forestal</t>
   </si>
   <si>
@@ -462,6 +351,117 @@
   </si>
   <si>
     <t>Industrial, Pecuario,  Mineria</t>
+  </si>
+  <si>
+    <t>Mineria en zonas de recargas de agua, deforestación, ganadería extensiva, apertura de vías</t>
+  </si>
+  <si>
+    <t>Mineria en zonas de recargas de agua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mineria </t>
+  </si>
+  <si>
+    <t>Mineria</t>
+  </si>
+  <si>
+    <t>Mineria.</t>
+  </si>
+  <si>
+    <t>BARRIO MARIA</t>
+  </si>
+  <si>
+    <t>SECTOR CEMENTERIO (AZULITA)</t>
+  </si>
+  <si>
+    <t>GRANIZAL (FORESTAL PRODUCTOR)</t>
+  </si>
+  <si>
+    <t>CABUYAL (FORESTAL PRODUCTOR)</t>
+  </si>
+  <si>
+    <t>PEÑOLCITO (FORESTAL PRODUCTOR)</t>
+  </si>
+  <si>
+    <t>QUEBRADA ARRIBA (FORESTAL PRODUCTOR)</t>
+  </si>
+  <si>
+    <t>MONTAÑITA (FORESTAL PRODUCTOR)</t>
+  </si>
+  <si>
+    <t>LA VETA (FORESTAL PROTECTOR)</t>
+  </si>
+  <si>
+    <t>EL ZARZAL (FORESTAL PROTECTOR)</t>
+  </si>
+  <si>
+    <t>SABANETA (FORESTAL PROTECTOR)</t>
+  </si>
+  <si>
+    <t>QUEBRADA ARRIBA (FORESTAL PROTECTOR)</t>
+  </si>
+  <si>
+    <t>ANCON I (FORESTAL PROTECTOR)</t>
+  </si>
+  <si>
+    <t>EL UMBI (FORESTAL PROTECTOR)</t>
+  </si>
+  <si>
+    <t>EL CABUYAL (PECUARIO)</t>
+  </si>
+  <si>
+    <t>PEÑOLCITO (PECUARIO)</t>
+  </si>
+  <si>
+    <t>MONTAÑITA (PECUARIO)</t>
+  </si>
+  <si>
+    <t>QUEBRADA ARRIBA (PECUARIO)</t>
+  </si>
+  <si>
+    <t>SABANETA (PECUARIO)</t>
+  </si>
+  <si>
+    <t>Forestal productor protector</t>
+  </si>
+  <si>
+    <t>Forestal protector</t>
+  </si>
+  <si>
+    <t>ALVARADO (SUBURBANO)</t>
+  </si>
+  <si>
+    <t>ALVARADO (DENSIDAD RESTRINGIDA)</t>
+  </si>
+  <si>
+    <t>ALVARADO (PECUARIO)</t>
+  </si>
+  <si>
+    <t>EL NORAL (AGRICOLA)</t>
+  </si>
+  <si>
+    <t>LA VETA (AGRICOLA)</t>
+  </si>
+  <si>
+    <t>ZARZAL LA LUZ (AGRICOLA)</t>
+  </si>
+  <si>
+    <t>ZARZAL CURAZAO (AGRICOLA)</t>
+  </si>
+  <si>
+    <t>GUASIMAL (SUBURBANO)</t>
+  </si>
+  <si>
+    <t>EL NORAL (SUBURBANO)</t>
+  </si>
+  <si>
+    <t>ANCON (SUBURBANO)</t>
+  </si>
+  <si>
+    <t>ANCON (DENSIDAD RESTRINGIDA)</t>
+  </si>
+  <si>
+    <t>ZARZAL CURAZAO (SUBURBANO)</t>
   </si>
 </sst>
 </file>
@@ -865,11 +865,11 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
@@ -881,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>12</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -942,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>14</v>
@@ -950,13 +950,13 @@
     </row>
     <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -965,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
@@ -973,13 +973,13 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -988,7 +988,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
@@ -996,13 +996,13 @@
     </row>
     <row r="6" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
@@ -1011,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -1057,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>14</v>
@@ -1065,13 +1065,13 @@
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>14</v>
@@ -1088,45 +1088,45 @@
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
@@ -1134,22 +1134,22 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>14</v>
@@ -1157,22 +1157,22 @@
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -1180,45 +1180,45 @@
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>14</v>
@@ -1226,22 +1226,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
@@ -1249,22 +1249,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>14</v>
@@ -1272,22 +1272,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>14</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
@@ -1310,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>14</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -1327,21 +1327,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
@@ -1350,13 +1350,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>14</v>
@@ -1364,22 +1364,22 @@
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>14</v>
@@ -1387,22 +1387,22 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>14</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -1419,13 +1419,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>14</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>11</v>
@@ -1442,27 +1442,27 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>6</v>
@@ -1471,44 +1471,44 @@
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
@@ -1517,64 +1517,64 @@
         <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
@@ -1586,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>14</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="32" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
@@ -1609,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>14</v>
@@ -1617,22 +1617,22 @@
     </row>
     <row r="33" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -1640,22 +1640,22 @@
     </row>
     <row r="34" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>13</v>
@@ -1663,22 +1663,22 @@
     </row>
     <row r="35" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -1686,22 +1686,22 @@
     </row>
     <row r="36" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>13</v>
@@ -1709,45 +1709,45 @@
     </row>
     <row r="37" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>13</v>
@@ -1755,22 +1755,22 @@
     </row>
     <row r="39" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>13</v>
@@ -1778,45 +1778,45 @@
     </row>
     <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>13</v>
@@ -1824,22 +1824,22 @@
     </row>
     <row r="42" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>13</v>
@@ -1847,22 +1847,22 @@
     </row>
     <row r="43" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>13</v>
@@ -1870,22 +1870,22 @@
     </row>
     <row r="44" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>13</v>
@@ -1893,45 +1893,45 @@
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>13</v>
@@ -1939,45 +1939,45 @@
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>13</v>
@@ -1985,22 +1985,22 @@
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>13</v>
@@ -2008,68 +2008,68 @@
     </row>
     <row r="50" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>13</v>
@@ -2077,22 +2077,22 @@
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>13</v>
@@ -2100,370 +2100,370 @@
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de datos/Clasificacion_suelos.xlsx
+++ b/Bases de datos/Clasificacion_suelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBC1B6-72EE-4F52-B39C-D6A734F2C8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA86FA-1CBA-4BDE-95C8-490D780E8217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="140">
   <si>
     <t>Principal</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>Industrial, Agricola y Pecuario.</t>
-  </si>
-  <si>
-    <t>Industrial pesada.</t>
   </si>
   <si>
     <t>Industrial, Pecuario,  Mineria</t>
@@ -865,8 +862,8 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +970,7 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
@@ -1620,7 +1617,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>85</v>
@@ -1629,7 +1626,7 @@
         <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>74</v>
@@ -1640,10 +1637,10 @@
     </row>
     <row r="34" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>85</v>
@@ -1652,7 +1649,7 @@
         <v>88</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>74</v>
@@ -1663,10 +1660,10 @@
     </row>
     <row r="35" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>85</v>
@@ -1675,7 +1672,7 @@
         <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>74</v>
@@ -1686,10 +1683,10 @@
     </row>
     <row r="36" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>85</v>
@@ -1698,7 +1695,7 @@
         <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>74</v>
@@ -1709,10 +1706,10 @@
     </row>
     <row r="37" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>85</v>
@@ -1721,7 +1718,7 @@
         <v>88</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>74</v>
@@ -1732,10 +1729,10 @@
     </row>
     <row r="38" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>85</v>
@@ -1744,7 +1741,7 @@
         <v>88</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>74</v>
@@ -1755,10 +1752,10 @@
     </row>
     <row r="39" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>89</v>
@@ -1767,7 +1764,7 @@
         <v>88</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>74</v>
@@ -1778,10 +1775,10 @@
     </row>
     <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>89</v>
@@ -1790,7 +1787,7 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>74</v>
@@ -1801,10 +1798,10 @@
     </row>
     <row r="41" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>90</v>
@@ -1813,7 +1810,7 @@
         <v>88</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>74</v>
@@ -1824,10 +1821,10 @@
     </row>
     <row r="42" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>90</v>
@@ -1836,7 +1833,7 @@
         <v>88</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>74</v>
@@ -1847,10 +1844,10 @@
     </row>
     <row r="43" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>90</v>
@@ -1859,7 +1856,7 @@
         <v>88</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>74</v>
@@ -1870,10 +1867,10 @@
     </row>
     <row r="44" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>90</v>
@@ -1882,7 +1879,7 @@
         <v>88</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>74</v>
@@ -1893,7 +1890,7 @@
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>15</v>
@@ -1905,7 +1902,7 @@
         <v>76</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>74</v>
@@ -1916,7 +1913,7 @@
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>15</v>
@@ -1928,7 +1925,7 @@
         <v>76</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>74</v>
@@ -1939,7 +1936,7 @@
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>15</v>
@@ -1951,7 +1948,7 @@
         <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>74</v>
@@ -1962,7 +1959,7 @@
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>15</v>
@@ -1974,7 +1971,7 @@
         <v>76</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>74</v>
@@ -1985,7 +1982,7 @@
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>15</v>
@@ -1997,7 +1994,7 @@
         <v>76</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>74</v>
@@ -2008,7 +2005,7 @@
     </row>
     <row r="50" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>77</v>
@@ -2020,7 +2017,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>73</v>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>35</v>
@@ -2043,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>73</v>
@@ -2054,7 +2051,7 @@
     </row>
     <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>15</v>
@@ -2066,7 +2063,7 @@
         <v>76</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>74</v>
@@ -2089,7 +2086,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>74</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>83</v>
@@ -2112,7 +2109,7 @@
         <v>87</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>74</v>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>83</v>
@@ -2135,7 +2132,7 @@
         <v>87</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>74</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>83</v>
@@ -2158,7 +2155,7 @@
         <v>87</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>74</v>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>83</v>
@@ -2181,7 +2178,7 @@
         <v>87</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>74</v>
@@ -2192,7 +2189,7 @@
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>77</v>
@@ -2204,7 +2201,7 @@
         <v>86</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>73</v>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>77</v>
@@ -2227,7 +2224,7 @@
         <v>86</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>73</v>
@@ -2238,7 +2235,7 @@
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>77</v>
@@ -2250,7 +2247,7 @@
         <v>86</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>73</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>28</v>
@@ -2273,7 +2270,7 @@
         <v>86</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>73</v>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>77</v>
@@ -2296,7 +2293,7 @@
         <v>86</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>73</v>
@@ -2319,7 +2316,7 @@
         <v>83</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>13</v>
@@ -2342,7 +2339,7 @@
         <v>83</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>13</v>
@@ -2365,7 +2362,7 @@
         <v>83</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>13</v>
@@ -2388,7 +2385,7 @@
         <v>86</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>73</v>
@@ -2411,7 +2408,7 @@
         <v>84</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>73</v>
@@ -2431,7 +2428,7 @@
         <v>97</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
@@ -2457,7 +2454,7 @@
         <v>86</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>73</v>
